--- a/biology/Zoologie/Hilsa_kelee/Hilsa_kelee.xlsx
+++ b/biology/Zoologie/Hilsa_kelee/Hilsa_kelee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Alose palli
-Hilsa kelee, l’Alose palli[1], unique représentant du genre Hilsa, est une espèce de poissons de la famille des Clupeidae. Cette espèce ne doit pas être confondue avec l'Alose hilsa ou Hilsa (Tenualosa ilisha).
+Hilsa kelee, l’Alose palli, unique représentant du genre Hilsa, est une espèce de poissons de la famille des Clupeidae. Cette espèce ne doit pas être confondue avec l'Alose hilsa ou Hilsa (Tenualosa ilisha).
 Hilsa kelee est originaire des côtes et estuaires de l'océan Indien et du Pacifique occidental, généralement dans les eaux tropicales. Elle se nourrit de diatomées et de dinoflagellés, ainsi que de tout autre petit plancton. Certains individus peuvent atteindre 35 cm, mais la plupart mesurent environ 16,5 cm.
 L'espèce est pêchée commercialement, avec 22 199 t débarquées en 2000 et 35 483 t débarquées en 2008.
 </t>
@@ -514,13 +526,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Hilsa kelee (Cuvier, 1829)[1].
-L'espèce a été initialement classée dans le genre Clupea sous le protonyme Clupea kelee Cuvier, 1829[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide complet (avec auteur) de ce taxon est Hilsa kelee (Cuvier, 1829).
+L'espèce a été initialement classée dans le genre Clupea sous le protonyme Clupea kelee Cuvier, 1829.
 Hilsa kelee est actuellement considérée comme l'unique espèce du genre Hilsa bien que d'autres espèces aient déjà été incluses dans le genre.
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Alose palli[1].
-Hilsa kelee a pour synonymes[1] :
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : Alose palli.
+Hilsa kelee a pour synonymes :
 Alausa brachysoma Bleeker, 1854
 Alausa kanagurta Bleeker, 1852
 Alosa brevis Bleeker, 1848
